--- a/good_results/fixed_num_points_table.xlsx
+++ b/good_results/fixed_num_points_table.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="0" windowWidth="20300" windowHeight="12420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>Small Boxes</t>
   </si>
@@ -43,6 +44,21 @@
   </si>
   <si>
     <t>Big Boxes</t>
+  </si>
+  <si>
+    <t>Cell Probes</t>
+  </si>
+  <si>
+    <t>Almost no difference across different memory sizes</t>
+  </si>
+  <si>
+    <t>Disk Accesses</t>
+  </si>
+  <si>
+    <t>Error Bars</t>
+  </si>
+  <si>
+    <t>Memory Size</t>
   </si>
 </sst>
 </file>
@@ -91,8 +107,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -103,18 +213,1887 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Memory Size vs. Disk Accesses for Small Box Queries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$C$12:$C$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0642595431736709</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0707085567664904</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0785576221636067</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0740790118724595</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0639906243132538</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$C$12:$C$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0642595431736709</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0707085567664904</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0785576221636067</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0740790118724595</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0639906243132538</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.24119999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71859999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveStruct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$D$12:$D$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00319722101554423</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0038987177379298</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0038987177379298</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00346410161513583</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00303315017761975</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$D$12:$D$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00319722101554423</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0038987177379298</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0038987177379298</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00346410161513583</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00303315017761975</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250.006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.005199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.005199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.0048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RangeTree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$E$12:$E$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.10813700158184</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.118263688425484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.107120026138906</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0896978260606131</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.066168723729569</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$E$12:$E$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.10813700158184</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.118263688425484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.107120026138906</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0896978260606131</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.066168723729569</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.99419999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RangeTree_non_veb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$F$12:$F$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.129571301692242</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.125434046414838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.108190572602237</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.125418100766994</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.104739199920564</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$F$12:$F$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.129571301692242</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.125434046414838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.108190572602237</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.125418100766994</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.104739199920564</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XBST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$G$12:$G$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.189494092549375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.196865436275644</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.218127944106205</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.267184767529887</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.353352090697083</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$G$12:$G$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.189494092549375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.196865436275644</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.218127944106205</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.267184767529887</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.353352090697083</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.59699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.06059999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XBST_non_veb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$H$12:$H$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.280254031589596</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.358440092623579</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.310156734571409</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.327729614163871</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.436094026558493</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$H$12:$H$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.280254031589596</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.358440092623579</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.310156734571409</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.327729614163871</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.436094026558493</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.671900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.67819999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2134848088"/>
+        <c:axId val="2130638520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2134848088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130638520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130638520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134848088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Memory Size vs. Disk Accesses for Big Box Queries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$C$23:$C$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.27767744521572</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.14536458440051</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0981662708184</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.07897784963362</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.553386573743888</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$C$23:$C$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.27767744521572</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.14536458440051</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0981662708184</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.07897784963362</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.553386573743888</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36.7099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.8562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.5202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveStruct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$D$23:$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.89752809302984</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.804591076261725</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.74058915736056</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.372911249495108</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.177409977171521</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$D$23:$D$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.89752809302984</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.804591076261725</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.74058915736056</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.372911249495108</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.177409977171521</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>267.3757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.9534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261.7076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.0056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.6306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RangeTree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$E$23:$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.55194998845538</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.01829440369833</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.04151860143374</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.44474444106907</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1589660046783</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$E$23:$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.55194998845538</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.01829440369833</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.04151860143374</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.44474444106907</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1589660046783</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42.9700999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.5784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.6182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.6682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RangeTree_non_veb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$F$23:$F$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.53920832150495</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.65830289846736</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.54920864191223</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.76693831244896</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.36025335875343</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$F$23:$F$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.53920832150495</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.65830289846736</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.54920864191223</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.76693831244896</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.36025335875343</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$18:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47.2557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0823999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.4778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XBST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$G$23:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.13944438673222</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.61492513758378</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.5725212240221</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.872537792877763</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.28083468878696</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$G$23:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.13944438673222</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.61492513758378</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.5725212240221</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.872537792877763</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.28083468878696</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67.9694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.2562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.7232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0569999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XBST_non_veb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$H$23:$H$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.12633743794346</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2862561754974</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.36874829815242</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.60866615554626</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.19219973998721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$H$23:$H$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.12633743794346</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2862561754974</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.36874829815242</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.60866615554626</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.19219973998721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$18:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68.2283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.3874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.1076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.1512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2116462536"/>
+        <c:axId val="2133271256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2116462536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133271256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133271256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116462536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431798</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>283731</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1352,4 +3331,558 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>6.2411999999999903</v>
+      </c>
+      <c r="D7">
+        <v>250.006</v>
+      </c>
+      <c r="E7">
+        <v>8.5444999999999993</v>
+      </c>
+      <c r="F7">
+        <v>9.9845000000000006</v>
+      </c>
+      <c r="G7">
+        <v>5.1447000000000003</v>
+      </c>
+      <c r="H7">
+        <v>8.6719000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>5.7732000000000001</v>
+      </c>
+      <c r="D8">
+        <v>250.00519999999901</v>
+      </c>
+      <c r="E8">
+        <v>7.9565999999999999</v>
+      </c>
+      <c r="F8">
+        <v>9.3667999999999996</v>
+      </c>
+      <c r="G8">
+        <v>4.5969999999999898</v>
+      </c>
+      <c r="H8">
+        <v>7.5286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>5.2736000000000001</v>
+      </c>
+      <c r="D9">
+        <v>250.00519999999901</v>
+      </c>
+      <c r="E9">
+        <v>7.4438000000000004</v>
+      </c>
+      <c r="F9">
+        <v>8.7921999999999993</v>
+      </c>
+      <c r="G9">
+        <v>4.0605999999999902</v>
+      </c>
+      <c r="H9">
+        <v>6.6781999999999897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>256</v>
+      </c>
+      <c r="C10">
+        <v>3.8927999999999998</v>
+      </c>
+      <c r="D10">
+        <v>125.005</v>
+      </c>
+      <c r="E10">
+        <v>5.9941999999999904</v>
+      </c>
+      <c r="F10">
+        <v>7.6592000000000002</v>
+      </c>
+      <c r="G10">
+        <v>2.8858000000000001</v>
+      </c>
+      <c r="H10">
+        <v>5.2442000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11">
+        <v>1024</v>
+      </c>
+      <c r="C11">
+        <v>2.7185999999999901</v>
+      </c>
+      <c r="D11">
+        <v>63.004800000000003</v>
+      </c>
+      <c r="E11">
+        <v>4.6276000000000002</v>
+      </c>
+      <c r="F11">
+        <v>5.9973999999999998</v>
+      </c>
+      <c r="G11">
+        <v>1.5722</v>
+      </c>
+      <c r="H11">
+        <v>2.4550000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6.4259543173670899E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.1972210155442301E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.10813700158184</v>
+      </c>
+      <c r="F12">
+        <v>0.12957130169224201</v>
+      </c>
+      <c r="G12">
+        <v>0.18949409254937499</v>
+      </c>
+      <c r="H12">
+        <v>0.280254031589596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13">
+        <v>7.0708556766490405E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.8987177379298001E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.118263688425484</v>
+      </c>
+      <c r="F13">
+        <v>0.12543404641483799</v>
+      </c>
+      <c r="G13">
+        <v>0.19686543627564401</v>
+      </c>
+      <c r="H13">
+        <v>0.35844009262357901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14">
+        <v>7.8557622163606705E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.8987177379298001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.107120026138906</v>
+      </c>
+      <c r="F14">
+        <v>0.108190572602237</v>
+      </c>
+      <c r="G14">
+        <v>0.21812794410620501</v>
+      </c>
+      <c r="H14">
+        <v>0.31015673457140902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15">
+        <v>7.4079011872459494E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.4641016151358301E-3</v>
+      </c>
+      <c r="E15">
+        <v>8.9697826060613106E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.125418100766994</v>
+      </c>
+      <c r="G15">
+        <v>0.26718476752988701</v>
+      </c>
+      <c r="H15">
+        <v>0.32772961416387097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16">
+        <v>6.3990624313253794E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.0331501776197502E-3</v>
+      </c>
+      <c r="E16">
+        <v>6.6168723729569001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.10473919992056401</v>
+      </c>
+      <c r="G16">
+        <v>0.35335209069708301</v>
+      </c>
+      <c r="H16">
+        <v>0.436094026558493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>36.709899999999998</v>
+      </c>
+      <c r="D18">
+        <v>267.37569999999999</v>
+      </c>
+      <c r="E18">
+        <v>42.970099999999903</v>
+      </c>
+      <c r="F18">
+        <v>47.255699999999997</v>
+      </c>
+      <c r="G18">
+        <v>67.969399999999993</v>
+      </c>
+      <c r="H18">
+        <v>68.228300000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>35.089799999999997</v>
+      </c>
+      <c r="D19">
+        <v>263.95339999999999</v>
+      </c>
+      <c r="E19">
+        <v>39.578400000000002</v>
+      </c>
+      <c r="F19">
+        <v>44.0823999999999</v>
+      </c>
+      <c r="G19">
+        <v>63.2562</v>
+      </c>
+      <c r="H19">
+        <v>65.3874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>33.856200000000001</v>
+      </c>
+      <c r="D20">
+        <v>261.70760000000001</v>
+      </c>
+      <c r="E20">
+        <v>37.618200000000002</v>
+      </c>
+      <c r="F20">
+        <v>42.130200000000002</v>
+      </c>
+      <c r="G20">
+        <v>61.563000000000002</v>
+      </c>
+      <c r="H20">
+        <v>63.765999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21">
+        <v>256</v>
+      </c>
+      <c r="C21">
+        <v>19.520199999999999</v>
+      </c>
+      <c r="D21">
+        <v>131.00559999999999</v>
+      </c>
+      <c r="E21">
+        <v>24.577999999999999</v>
+      </c>
+      <c r="F21">
+        <v>29.344000000000001</v>
+      </c>
+      <c r="G21">
+        <v>31.723199999999999</v>
+      </c>
+      <c r="H21">
+        <v>34.107599999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22">
+        <v>1024</v>
+      </c>
+      <c r="C22">
+        <v>11.2608</v>
+      </c>
+      <c r="D22">
+        <v>65.630600000000001</v>
+      </c>
+      <c r="E22">
+        <v>16.668199999999999</v>
+      </c>
+      <c r="F22">
+        <v>20.477799999999998</v>
+      </c>
+      <c r="G22">
+        <v>14.056999999999899</v>
+      </c>
+      <c r="H22">
+        <v>16.151199999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2.27767744521572</v>
+      </c>
+      <c r="D23">
+        <v>0.89752809302984005</v>
+      </c>
+      <c r="E23">
+        <v>1.55194998845538</v>
+      </c>
+      <c r="F23">
+        <v>2.5392083215049501</v>
+      </c>
+      <c r="G23">
+        <v>6.1394443867322197</v>
+      </c>
+      <c r="H23">
+        <v>2.1263374379434601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24">
+        <v>2.14536458440051</v>
+      </c>
+      <c r="D24">
+        <v>0.80459107626172499</v>
+      </c>
+      <c r="E24">
+        <v>2.0182944036983299</v>
+      </c>
+      <c r="F24">
+        <v>2.65830289846736</v>
+      </c>
+      <c r="G24">
+        <v>1.6149251375837801</v>
+      </c>
+      <c r="H24">
+        <v>2.2862561754974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25">
+        <v>2.0981662708184001</v>
+      </c>
+      <c r="D25">
+        <v>0.74058915736055997</v>
+      </c>
+      <c r="E25">
+        <v>2.0415186014337401</v>
+      </c>
+      <c r="F25">
+        <v>2.5492086419122302</v>
+      </c>
+      <c r="G25">
+        <v>1.5725212240221</v>
+      </c>
+      <c r="H25">
+        <v>2.3687482981524202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26">
+        <v>1.07897784963362</v>
+      </c>
+      <c r="D26">
+        <v>0.37291124949510801</v>
+      </c>
+      <c r="E26">
+        <v>1.44474444106907</v>
+      </c>
+      <c r="F26">
+        <v>1.7669383124489599</v>
+      </c>
+      <c r="G26">
+        <v>0.87253779287776301</v>
+      </c>
+      <c r="H26">
+        <v>1.60866615554626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27">
+        <v>0.553386573743888</v>
+      </c>
+      <c r="D27">
+        <v>0.17740997717152099</v>
+      </c>
+      <c r="E27">
+        <v>1.1589660046782999</v>
+      </c>
+      <c r="F27">
+        <v>1.36025335875343</v>
+      </c>
+      <c r="G27">
+        <v>1.2808346887869599</v>
+      </c>
+      <c r="H27">
+        <v>2.1921997399872102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>